--- a/APM files/140281999/UTD/140281999 4 VR_PM Under the Doormat - RPL Cloud Import.xlsx
+++ b/APM files/140281999/UTD/140281999 4 VR_PM Under the Doormat - RPL Cloud Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llepori\.atlassian-companion\9ba4fa2c-7d05-41e5-a51f-0167c20c1151\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/repositories/workspace/APM files/140281999/UTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E6FFF-AE28-436A-B662-3BA7E4E273E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67336135-0888-CC48-9590-24D13E64A9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{9F6B6170-A9E0-4121-918E-D88CC78135CE}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9F6B6170-A9E0-4121-918E-D88CC78135CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -58,7 +58,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -149,13 +149,94 @@
   </si>
   <si>
     <t>SF ID</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>108815105</t>
+  </si>
+  <si>
+    <t>326750163</t>
+  </si>
+  <si>
+    <t>326750212</t>
+  </si>
+  <si>
+    <t>326750257</t>
+  </si>
+  <si>
+    <t>326750281</t>
+  </si>
+  <si>
+    <t>326750293</t>
+  </si>
+  <si>
+    <t>402795571</t>
+  </si>
+  <si>
+    <t>402795574</t>
+  </si>
+  <si>
+    <t>402795578</t>
+  </si>
+  <si>
+    <t>402795583</t>
+  </si>
+  <si>
+    <t>402795585</t>
+  </si>
+  <si>
+    <t>3123205</t>
+  </si>
+  <si>
+    <t>3123206</t>
+  </si>
+  <si>
+    <t>3123207</t>
+  </si>
+  <si>
+    <t>3123208</t>
+  </si>
+  <si>
+    <t>3123209</t>
+  </si>
+  <si>
+    <t>402796796</t>
+  </si>
+  <si>
+    <t>402796799</t>
+  </si>
+  <si>
+    <t>402796803</t>
+  </si>
+  <si>
+    <t>402796804</t>
+  </si>
+  <si>
+    <t>402796807</t>
+  </si>
+  <si>
+    <t>402796809</t>
+  </si>
+  <si>
+    <t>402796812</t>
+  </si>
+  <si>
+    <t>402796815</t>
+  </si>
+  <si>
+    <t>402796818</t>
+  </si>
+  <si>
+    <t>402796820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,14 +245,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,13 +293,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,9 +318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -377,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,106 +614,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317245A-E19E-4937-9770-AE2D897EC021}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="12" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2">
+        <v>140281999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
@@ -640,18 +746,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3">
+        <v>140281999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
@@ -665,9 +790,368 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>140281999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>-10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>140281999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>-10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>140281999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>-10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>140281999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>140281999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>-10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>140281999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>-10</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>140281999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>-10</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>140281999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>-10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>